--- a/config_3.2/box_exchange_server.xlsx
+++ b/config_3.2/box_exchange_server.xlsx
@@ -5132,10 +5132,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -5165,27 +5161,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,100</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -5200,6 +5175,18 @@
       </rPr>
       <t>000,3000</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,65</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -16829,7 +16816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C455" sqref="C455"/>
+      <selection pane="bottomLeft" activeCell="E479" sqref="E479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -24233,7 +24220,7 @@
         <v>748</v>
       </c>
       <c r="E469" s="21" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -24248,7 +24235,7 @@
         <v>748</v>
       </c>
       <c r="E470" s="21" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
@@ -24263,7 +24250,7 @@
         <v>748</v>
       </c>
       <c r="E471" s="21" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -24293,7 +24280,7 @@
         <v>30</v>
       </c>
       <c r="E473" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -24304,7 +24291,7 @@
         <v>11949</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D474" s="13"/>
       <c r="E474" s="32"/>
@@ -24318,10 +24305,10 @@
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="E475" s="21" t="s">
         <v>786</v>
-      </c>
-      <c r="E475" s="21" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -24366,7 +24353,7 @@
         <v>748</v>
       </c>
       <c r="E478" s="21" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
@@ -24381,7 +24368,7 @@
         <v>748</v>
       </c>
       <c r="E479" s="21" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -24396,7 +24383,7 @@
         <v>30</v>
       </c>
       <c r="E480" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -24422,7 +24409,7 @@
         <v>11957</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D482" s="13"/>
       <c r="E482" s="32"/>

--- a/config_3.2/box_exchange_server.xlsx
+++ b/config_3.2/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="783">
   <si>
     <t>id|</t>
   </si>
@@ -5119,14 +5119,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>过大年--抽奖（金元宝）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--抽奖（福利券）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5147,6 +5139,10 @@
   </si>
   <si>
     <t>prop_ty_csbox</t>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5813,9 +5809,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8141,7 +8137,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="C78" s="18">
         <v>1613433600</v>
@@ -8169,7 +8165,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C79" s="18">
         <v>1613433600</v>
@@ -8197,7 +8193,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C80" s="51">
         <v>1614643200</v>
@@ -8225,7 +8221,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C81" s="51">
         <v>1614643200</v>
@@ -8253,7 +8249,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C82" s="51">
         <v>1614643200</v>
@@ -9319,7 +9315,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D73" s="51">
         <v>1</v>
@@ -9333,7 +9329,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D74" s="51">
         <v>1</v>
@@ -9347,7 +9343,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D75" s="51">
         <v>1</v>
@@ -9407,11 +9403,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -24477,7 +24473,7 @@
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="15" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E490" s="21" t="s">
         <v>765</v>

--- a/config_3.2/box_exchange_server.xlsx
+++ b/config_3.2/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="784">
   <si>
     <t>id|</t>
   </si>
@@ -5129,6 +5129,24 @@
   <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包稀有宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包史诗宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包传说宝箱</t>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
   </si>
 </sst>
 </file>
@@ -5270,7 +5288,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5303,25 +5321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5365,7 +5371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5488,21 +5494,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5510,67 +5506,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5849,11 +5811,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5874,7 +5836,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7765,10 +7727,10 @@
       <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="46">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7797,10 +7759,10 @@
       <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="46">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7829,10 +7791,10 @@
       <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="46">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7861,10 +7823,10 @@
       <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="46">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7893,10 +7855,10 @@
       <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="46">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7925,10 +7887,10 @@
       <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="46">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7957,10 +7919,10 @@
       <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="46">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="46">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -8062,173 +8024,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="49" customFormat="1">
-      <c r="A74" s="49">
+    <row r="74" spans="1:12" s="18" customFormat="1">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="28">
         <v>68</v>
       </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="49">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18">
         <v>73</v>
       </c>
-      <c r="L74" s="49">
+      <c r="L74" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="63" customFormat="1">
-      <c r="A75" s="63">
+    <row r="75" spans="1:12" s="18" customFormat="1">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D75" s="63">
+      <c r="D75" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="28">
         <v>69</v>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="63">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="18">
         <v>74</v>
       </c>
-      <c r="L75" s="63">
+      <c r="L75" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="63" customFormat="1">
-      <c r="A76" s="63">
+    <row r="76" spans="1:12" s="18" customFormat="1">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="C76" s="63">
+      <c r="C76" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="28">
         <v>69</v>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="63">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="18">
         <v>75</v>
       </c>
-      <c r="L76" s="63">
+      <c r="L76" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="63" customFormat="1">
-      <c r="A77" s="63">
+    <row r="77" spans="1:12" s="18" customFormat="1">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="C77" s="63">
+      <c r="C77" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D77" s="63">
+      <c r="D77" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="28">
         <v>69</v>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="63">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="18">
         <v>76</v>
       </c>
-      <c r="L77" s="63">
+      <c r="L77" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="71">
+    <row r="78" spans="1:12" s="18" customFormat="1">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="C78" s="71">
+      <c r="C78" s="18">
         <v>1613433600</v>
       </c>
-      <c r="D78" s="71">
+      <c r="D78" s="18">
         <v>1614009599</v>
       </c>
-      <c r="E78" s="73">
+      <c r="E78" s="28">
         <v>70</v>
       </c>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="71">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="18">
         <v>77</v>
       </c>
-      <c r="L78" s="71">
+      <c r="L78" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="71">
+    <row r="79" spans="1:12" s="18" customFormat="1">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="39" t="s">
         <v>776</v>
       </c>
-      <c r="C79" s="71">
+      <c r="C79" s="18">
         <v>1613433600</v>
       </c>
-      <c r="D79" s="71">
+      <c r="D79" s="18">
         <v>1614009599</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="28">
         <v>71</v>
       </c>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="71">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="18">
         <v>77</v>
       </c>
-      <c r="L79" s="71">
+      <c r="L79" s="18">
         <v>1</v>
       </c>
+    </row>
+    <row r="80" spans="1:12" s="18" customFormat="1">
+      <c r="A80" s="51">
+        <v>79</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="C80" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D80" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E80" s="52">
+        <v>72</v>
+      </c>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="51">
+        <v>78</v>
+      </c>
+      <c r="L80" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="18" customFormat="1">
+      <c r="A81" s="51">
+        <v>80</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>779</v>
+      </c>
+      <c r="C81" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D81" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E81" s="52">
+        <v>73</v>
+      </c>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="51">
+        <v>79</v>
+      </c>
+      <c r="L81" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="18" customFormat="1">
+      <c r="A82" s="51">
+        <v>81</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="C82" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D82" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E82" s="52">
+        <v>74</v>
+      </c>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="51">
+        <v>80</v>
+      </c>
+      <c r="L82" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="D83" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8241,11 +8290,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9207,59 +9256,101 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="44">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="44">
+      <c r="B69" s="17">
         <v>68</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1">
-      <c r="A70" s="62">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="17">
         <v>69</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="70">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="70">
+      <c r="B71" s="17">
         <v>70</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="D71" s="71">
+      <c r="D71" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="70">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="70">
+      <c r="B72" s="17">
         <v>71</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="71">
+      <c r="D72" s="18">
         <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17">
+        <v>72</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="D73" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17">
+        <v>73</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="D74" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17">
+        <v>74</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="D75" s="51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9314,13 +9405,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E524"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D466" sqref="D466"/>
+      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13819,13 +13910,13 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="13">
         <v>49</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="13">
         <v>11794</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13833,13 +13924,13 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="13">
         <v>49</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="13">
         <v>11795</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13847,13 +13938,13 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="13">
         <v>49</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="13">
         <v>11796</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13861,13 +13952,13 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="13">
         <v>50</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="13">
         <v>11797</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13875,13 +13966,13 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="13">
         <v>50</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="13">
         <v>11798</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13889,13 +13980,13 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="13">
         <v>50</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="13">
         <v>11799</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13903,13 +13994,13 @@
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="13">
         <v>50</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="13">
         <v>11800</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13917,13 +14008,13 @@
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="13">
         <v>50</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="13">
         <v>11801</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13931,13 +14022,13 @@
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="13">
         <v>50</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="13">
         <v>11802</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13945,13 +14036,13 @@
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="13">
         <v>51</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="13">
         <v>11803</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13959,13 +14050,13 @@
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="13">
         <v>51</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="13">
         <v>11804</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13973,13 +14064,13 @@
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="13">
         <v>51</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="13">
         <v>11805</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13987,13 +14078,13 @@
       <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="13">
         <v>51</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="13">
         <v>11806</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="13">
         <v>400</v>
       </c>
     </row>
@@ -14001,13 +14092,13 @@
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="13">
         <v>51</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="13">
         <v>11807</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14015,13 +14106,13 @@
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="13">
         <v>51</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="13">
         <v>11808</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14029,13 +14120,13 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="13">
         <v>52</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="13">
         <v>11809</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14043,13 +14134,13 @@
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="13">
         <v>52</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="13">
         <v>11810</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14057,13 +14148,13 @@
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="13">
         <v>52</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="13">
         <v>11811</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14071,13 +14162,13 @@
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="13">
         <v>52</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="13">
         <v>11812</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="13">
         <v>400</v>
       </c>
     </row>
@@ -14085,13 +14176,13 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="13">
         <v>52</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="13">
         <v>11813</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14099,13 +14190,13 @@
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="13">
         <v>52</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="13">
         <v>11814</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14235,129 +14326,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="51" customFormat="1">
-      <c r="A351" s="51">
+    <row r="351" spans="1:4" s="47" customFormat="1">
+      <c r="A351" s="47">
         <v>350</v>
       </c>
-      <c r="B351" s="51">
+      <c r="B351" s="47">
         <v>57</v>
       </c>
-      <c r="C351" s="51">
+      <c r="C351" s="47">
         <v>11824</v>
       </c>
-      <c r="D351" s="51">
+      <c r="D351" s="47">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="51" customFormat="1">
-      <c r="A352" s="51">
+    <row r="352" spans="1:4" s="47" customFormat="1">
+      <c r="A352" s="47">
         <v>351</v>
       </c>
-      <c r="B352" s="51">
+      <c r="B352" s="47">
         <v>57</v>
       </c>
-      <c r="C352" s="51">
+      <c r="C352" s="47">
         <v>11825</v>
       </c>
-      <c r="D352" s="51">
+      <c r="D352" s="47">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="51" customFormat="1">
-      <c r="A353" s="51">
+    <row r="353" spans="1:4" s="47" customFormat="1">
+      <c r="A353" s="47">
         <v>352</v>
       </c>
-      <c r="B353" s="51">
+      <c r="B353" s="47">
         <v>57</v>
       </c>
-      <c r="C353" s="51">
+      <c r="C353" s="47">
         <v>11826</v>
       </c>
-      <c r="D353" s="51">
+      <c r="D353" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="51" customFormat="1">
-      <c r="A354" s="51">
+    <row r="354" spans="1:4" s="47" customFormat="1">
+      <c r="A354" s="47">
         <v>353</v>
       </c>
-      <c r="B354" s="51">
+      <c r="B354" s="47">
         <v>57</v>
       </c>
-      <c r="C354" s="51">
+      <c r="C354" s="47">
         <v>11827</v>
       </c>
-      <c r="D354" s="51">
+      <c r="D354" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="51" customFormat="1">
-      <c r="A355" s="51">
+    <row r="355" spans="1:4" s="47" customFormat="1">
+      <c r="A355" s="47">
         <v>354</v>
       </c>
-      <c r="B355" s="51">
+      <c r="B355" s="47">
         <v>57</v>
       </c>
-      <c r="C355" s="51">
+      <c r="C355" s="47">
         <v>11828</v>
       </c>
-      <c r="D355" s="51">
+      <c r="D355" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="51" customFormat="1">
-      <c r="A356" s="51">
+    <row r="356" spans="1:4" s="47" customFormat="1">
+      <c r="A356" s="47">
         <v>355</v>
       </c>
-      <c r="B356" s="51">
+      <c r="B356" s="47">
         <v>57</v>
       </c>
-      <c r="C356" s="51">
+      <c r="C356" s="47">
         <v>11829</v>
       </c>
-      <c r="D356" s="51">
+      <c r="D356" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="51" customFormat="1">
-      <c r="A357" s="51">
+    <row r="357" spans="1:4" s="47" customFormat="1">
+      <c r="A357" s="47">
         <v>356</v>
       </c>
-      <c r="B357" s="51">
+      <c r="B357" s="47">
         <v>57</v>
       </c>
-      <c r="C357" s="51">
+      <c r="C357" s="47">
         <v>11830</v>
       </c>
-      <c r="D357" s="51">
+      <c r="D357" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="51" customFormat="1">
-      <c r="A358" s="51">
+    <row r="358" spans="1:4" s="47" customFormat="1">
+      <c r="A358" s="47">
         <v>357</v>
       </c>
-      <c r="B358" s="51">
+      <c r="B358" s="47">
         <v>57</v>
       </c>
-      <c r="C358" s="51">
+      <c r="C358" s="47">
         <v>11831</v>
       </c>
-      <c r="D358" s="51">
+      <c r="D358" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="51" customFormat="1">
-      <c r="A359" s="51">
+    <row r="359" spans="1:4" s="47" customFormat="1">
+      <c r="A359" s="47">
         <v>358</v>
       </c>
-      <c r="B359" s="51">
+      <c r="B359" s="47">
         <v>57</v>
       </c>
-      <c r="C359" s="51">
+      <c r="C359" s="47">
         <v>11832</v>
       </c>
-      <c r="D359" s="51">
+      <c r="D359" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14365,13 +14456,13 @@
       <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="51">
+      <c r="B360" s="47">
         <v>58</v>
       </c>
       <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="51">
+      <c r="D360" s="47">
         <v>20</v>
       </c>
     </row>
@@ -14379,13 +14470,13 @@
       <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="51">
+      <c r="B361" s="47">
         <v>58</v>
       </c>
       <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="51">
+      <c r="D361" s="47">
         <v>25</v>
       </c>
     </row>
@@ -14393,13 +14484,13 @@
       <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="51">
+      <c r="B362" s="47">
         <v>58</v>
       </c>
       <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="51">
+      <c r="D362" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14407,13 +14498,13 @@
       <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="51">
+      <c r="B363" s="47">
         <v>58</v>
       </c>
       <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="51">
+      <c r="D363" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14421,13 +14512,13 @@
       <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="51">
+      <c r="B364" s="47">
         <v>58</v>
       </c>
       <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="51">
+      <c r="D364" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14435,13 +14526,13 @@
       <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="51">
+      <c r="B365" s="47">
         <v>58</v>
       </c>
       <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="51">
+      <c r="D365" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14449,13 +14540,13 @@
       <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="51">
+      <c r="B366" s="47">
         <v>58</v>
       </c>
       <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="51">
+      <c r="D366" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14463,13 +14554,13 @@
       <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="51">
+      <c r="B367" s="47">
         <v>58</v>
       </c>
       <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="51">
+      <c r="D367" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14477,13 +14568,13 @@
       <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="51">
+      <c r="B368" s="47">
         <v>58</v>
       </c>
       <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="51">
+      <c r="D368" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14491,13 +14582,13 @@
       <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="51">
+      <c r="B369" s="47">
         <v>59</v>
       </c>
       <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="51">
+      <c r="D369" s="47">
         <v>20</v>
       </c>
     </row>
@@ -14505,13 +14596,13 @@
       <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="51">
+      <c r="B370" s="47">
         <v>59</v>
       </c>
       <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="51">
+      <c r="D370" s="47">
         <v>25</v>
       </c>
     </row>
@@ -14519,13 +14610,13 @@
       <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="51">
+      <c r="B371" s="47">
         <v>59</v>
       </c>
       <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="51">
+      <c r="D371" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14533,13 +14624,13 @@
       <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="51">
+      <c r="B372" s="47">
         <v>59</v>
       </c>
       <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="51">
+      <c r="D372" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14547,13 +14638,13 @@
       <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="51">
+      <c r="B373" s="47">
         <v>59</v>
       </c>
       <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="51">
+      <c r="D373" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14561,13 +14652,13 @@
       <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="51">
+      <c r="B374" s="47">
         <v>59</v>
       </c>
       <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="51">
+      <c r="D374" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14575,13 +14666,13 @@
       <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="51">
+      <c r="B375" s="47">
         <v>59</v>
       </c>
       <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="51">
+      <c r="D375" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14589,13 +14680,13 @@
       <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="51">
+      <c r="B376" s="47">
         <v>59</v>
       </c>
       <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="51">
+      <c r="D376" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14603,13 +14694,13 @@
       <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="51">
+      <c r="B377" s="47">
         <v>59</v>
       </c>
       <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="51">
+      <c r="D377" s="47">
         <v>5</v>
       </c>
     </row>
@@ -15695,13 +15786,13 @@
       <c r="A455" s="13">
         <v>454</v>
       </c>
-      <c r="B455" s="45">
+      <c r="B455" s="13">
         <v>73</v>
       </c>
-      <c r="C455" s="45">
+      <c r="C455" s="13">
         <v>11930</v>
       </c>
-      <c r="D455" s="45">
+      <c r="D455" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15709,13 +15800,13 @@
       <c r="A456" s="13">
         <v>455</v>
       </c>
-      <c r="B456" s="45">
+      <c r="B456" s="13">
         <v>73</v>
       </c>
-      <c r="C456" s="45">
+      <c r="C456" s="13">
         <v>11931</v>
       </c>
-      <c r="D456" s="45">
+      <c r="D456" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15723,13 +15814,13 @@
       <c r="A457" s="13">
         <v>456</v>
       </c>
-      <c r="B457" s="45">
+      <c r="B457" s="13">
         <v>73</v>
       </c>
-      <c r="C457" s="45">
+      <c r="C457" s="13">
         <v>11932</v>
       </c>
-      <c r="D457" s="45">
+      <c r="D457" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15737,13 +15828,13 @@
       <c r="A458" s="13">
         <v>457</v>
       </c>
-      <c r="B458" s="45">
+      <c r="B458" s="13">
         <v>73</v>
       </c>
-      <c r="C458" s="45">
+      <c r="C458" s="13">
         <v>11933</v>
       </c>
-      <c r="D458" s="45">
+      <c r="D458" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15751,13 +15842,13 @@
       <c r="A459" s="13">
         <v>458</v>
       </c>
-      <c r="B459" s="57">
+      <c r="B459" s="13">
         <v>74</v>
       </c>
-      <c r="C459" s="57">
+      <c r="C459" s="13">
         <v>11934</v>
       </c>
-      <c r="D459" s="57">
+      <c r="D459" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15765,13 +15856,13 @@
       <c r="A460" s="13">
         <v>459</v>
       </c>
-      <c r="B460" s="57">
+      <c r="B460" s="13">
         <v>74</v>
       </c>
-      <c r="C460" s="57">
+      <c r="C460" s="13">
         <v>11935</v>
       </c>
-      <c r="D460" s="57">
+      <c r="D460" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15779,13 +15870,13 @@
       <c r="A461" s="13">
         <v>460</v>
       </c>
-      <c r="B461" s="57">
+      <c r="B461" s="13">
         <v>74</v>
       </c>
-      <c r="C461" s="57">
+      <c r="C461" s="13">
         <v>11936</v>
       </c>
-      <c r="D461" s="57">
+      <c r="D461" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15793,13 +15884,13 @@
       <c r="A462" s="13">
         <v>461</v>
       </c>
-      <c r="B462" s="57">
+      <c r="B462" s="13">
         <v>74</v>
       </c>
-      <c r="C462" s="57">
+      <c r="C462" s="13">
         <v>11937</v>
       </c>
-      <c r="D462" s="57">
+      <c r="D462" s="13">
         <v>25</v>
       </c>
     </row>
@@ -15807,13 +15898,13 @@
       <c r="A463" s="13">
         <v>462</v>
       </c>
-      <c r="B463" s="57">
+      <c r="B463" s="13">
         <v>74</v>
       </c>
-      <c r="C463" s="57">
+      <c r="C463" s="13">
         <v>11938</v>
       </c>
-      <c r="D463" s="57">
+      <c r="D463" s="13">
         <v>45</v>
       </c>
     </row>
@@ -15821,13 +15912,13 @@
       <c r="A464" s="13">
         <v>463</v>
       </c>
-      <c r="B464" s="57">
+      <c r="B464" s="13">
         <v>74</v>
       </c>
-      <c r="C464" s="57">
+      <c r="C464" s="13">
         <v>11939</v>
       </c>
-      <c r="D464" s="57">
+      <c r="D464" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15835,13 +15926,13 @@
       <c r="A465" s="13">
         <v>464</v>
       </c>
-      <c r="B465" s="57">
+      <c r="B465" s="13">
         <v>74</v>
       </c>
-      <c r="C465" s="57">
+      <c r="C465" s="13">
         <v>11940</v>
       </c>
-      <c r="D465" s="57">
+      <c r="D465" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15849,13 +15940,13 @@
       <c r="A466" s="13">
         <v>465</v>
       </c>
-      <c r="B466" s="57">
+      <c r="B466" s="13">
         <v>74</v>
       </c>
-      <c r="C466" s="57">
+      <c r="C466" s="13">
         <v>11941</v>
       </c>
-      <c r="D466" s="57">
+      <c r="D466" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15863,13 +15954,13 @@
       <c r="A467" s="13">
         <v>466</v>
       </c>
-      <c r="B467" s="57">
+      <c r="B467" s="13">
         <v>75</v>
       </c>
-      <c r="C467" s="57">
+      <c r="C467" s="13">
         <v>11942</v>
       </c>
-      <c r="D467" s="57">
+      <c r="D467" s="13">
         <v>5</v>
       </c>
     </row>
@@ -15877,13 +15968,13 @@
       <c r="A468" s="13">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="13">
         <v>75</v>
       </c>
-      <c r="C468" s="57">
+      <c r="C468" s="13">
         <v>11943</v>
       </c>
-      <c r="D468" s="57">
+      <c r="D468" s="13">
         <v>5</v>
       </c>
     </row>
@@ -15891,13 +15982,13 @@
       <c r="A469" s="13">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="13">
         <v>75</v>
       </c>
-      <c r="C469" s="57">
+      <c r="C469" s="13">
         <v>11944</v>
       </c>
-      <c r="D469" s="57">
+      <c r="D469" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15905,13 +15996,13 @@
       <c r="A470" s="13">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="13">
         <v>75</v>
       </c>
-      <c r="C470" s="57">
+      <c r="C470" s="13">
         <v>11945</v>
       </c>
-      <c r="D470" s="57">
+      <c r="D470" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15919,13 +16010,13 @@
       <c r="A471" s="13">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="13">
         <v>75</v>
       </c>
-      <c r="C471" s="57">
+      <c r="C471" s="13">
         <v>11946</v>
       </c>
-      <c r="D471" s="57">
+      <c r="D471" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15933,13 +16024,13 @@
       <c r="A472" s="13">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="13">
         <v>75</v>
       </c>
-      <c r="C472" s="57">
+      <c r="C472" s="13">
         <v>11947</v>
       </c>
-      <c r="D472" s="57">
+      <c r="D472" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15947,13 +16038,13 @@
       <c r="A473" s="13">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="13">
         <v>75</v>
       </c>
-      <c r="C473" s="57">
+      <c r="C473" s="13">
         <v>11948</v>
       </c>
-      <c r="D473" s="57">
+      <c r="D473" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15961,13 +16052,13 @@
       <c r="A474" s="13">
         <v>473</v>
       </c>
-      <c r="B474" s="57">
+      <c r="B474" s="13">
         <v>75</v>
       </c>
-      <c r="C474" s="57">
+      <c r="C474" s="13">
         <v>11949</v>
       </c>
-      <c r="D474" s="57">
+      <c r="D474" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15975,13 +16066,13 @@
       <c r="A475" s="13">
         <v>474</v>
       </c>
-      <c r="B475" s="57">
+      <c r="B475" s="13">
         <v>76</v>
       </c>
-      <c r="C475" s="57">
+      <c r="C475" s="13">
         <v>11950</v>
       </c>
-      <c r="D475" s="57">
+      <c r="D475" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15989,13 +16080,13 @@
       <c r="A476" s="13">
         <v>475</v>
       </c>
-      <c r="B476" s="57">
+      <c r="B476" s="13">
         <v>76</v>
       </c>
-      <c r="C476" s="57">
+      <c r="C476" s="13">
         <v>11951</v>
       </c>
-      <c r="D476" s="57">
+      <c r="D476" s="13">
         <v>50</v>
       </c>
     </row>
@@ -16003,13 +16094,13 @@
       <c r="A477" s="13">
         <v>476</v>
       </c>
-      <c r="B477" s="57">
+      <c r="B477" s="13">
         <v>76</v>
       </c>
-      <c r="C477" s="57">
+      <c r="C477" s="13">
         <v>11952</v>
       </c>
-      <c r="D477" s="57">
+      <c r="D477" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16017,13 +16108,13 @@
       <c r="A478" s="13">
         <v>477</v>
       </c>
-      <c r="B478" s="57">
+      <c r="B478" s="13">
         <v>76</v>
       </c>
-      <c r="C478" s="57">
+      <c r="C478" s="13">
         <v>11953</v>
       </c>
-      <c r="D478" s="57">
+      <c r="D478" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16031,13 +16122,13 @@
       <c r="A479" s="13">
         <v>478</v>
       </c>
-      <c r="B479" s="57">
+      <c r="B479" s="13">
         <v>76</v>
       </c>
-      <c r="C479" s="57">
+      <c r="C479" s="13">
         <v>11954</v>
       </c>
-      <c r="D479" s="57">
+      <c r="D479" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16045,13 +16136,13 @@
       <c r="A480" s="13">
         <v>479</v>
       </c>
-      <c r="B480" s="57">
+      <c r="B480" s="13">
         <v>76</v>
       </c>
-      <c r="C480" s="57">
+      <c r="C480" s="13">
         <v>11955</v>
       </c>
-      <c r="D480" s="57">
+      <c r="D480" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16059,13 +16150,13 @@
       <c r="A481" s="13">
         <v>480</v>
       </c>
-      <c r="B481" s="57">
+      <c r="B481" s="13">
         <v>76</v>
       </c>
-      <c r="C481" s="57">
+      <c r="C481" s="13">
         <v>11956</v>
       </c>
-      <c r="D481" s="57">
+      <c r="D481" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16073,13 +16164,13 @@
       <c r="A482" s="13">
         <v>481</v>
       </c>
-      <c r="B482" s="57">
+      <c r="B482" s="13">
         <v>76</v>
       </c>
-      <c r="C482" s="57">
+      <c r="C482" s="13">
         <v>11957</v>
       </c>
-      <c r="D482" s="57">
+      <c r="D482" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16087,13 +16178,13 @@
       <c r="A483" s="13">
         <v>482</v>
       </c>
-      <c r="B483" s="66">
+      <c r="B483" s="13">
         <v>77</v>
       </c>
-      <c r="C483" s="66">
+      <c r="C483" s="13">
         <v>11958</v>
       </c>
-      <c r="D483" s="66">
+      <c r="D483" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16101,13 +16192,13 @@
       <c r="A484" s="13">
         <v>483</v>
       </c>
-      <c r="B484" s="66">
+      <c r="B484" s="13">
         <v>77</v>
       </c>
-      <c r="C484" s="66">
+      <c r="C484" s="13">
         <v>11959</v>
       </c>
-      <c r="D484" s="66">
+      <c r="D484" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16115,13 +16206,13 @@
       <c r="A485" s="13">
         <v>484</v>
       </c>
-      <c r="B485" s="66">
+      <c r="B485" s="13">
         <v>77</v>
       </c>
-      <c r="C485" s="66">
+      <c r="C485" s="13">
         <v>11960</v>
       </c>
-      <c r="D485" s="66">
+      <c r="D485" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16129,13 +16220,13 @@
       <c r="A486" s="13">
         <v>485</v>
       </c>
-      <c r="B486" s="66">
+      <c r="B486" s="13">
         <v>77</v>
       </c>
-      <c r="C486" s="66">
+      <c r="C486" s="13">
         <v>11961</v>
       </c>
-      <c r="D486" s="66">
+      <c r="D486" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16143,13 +16234,13 @@
       <c r="A487" s="13">
         <v>486</v>
       </c>
-      <c r="B487" s="66">
+      <c r="B487" s="13">
         <v>77</v>
       </c>
-      <c r="C487" s="66">
+      <c r="C487" s="13">
         <v>11962</v>
       </c>
-      <c r="D487" s="66">
+      <c r="D487" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16157,13 +16248,13 @@
       <c r="A488" s="13">
         <v>487</v>
       </c>
-      <c r="B488" s="66">
+      <c r="B488" s="13">
         <v>77</v>
       </c>
-      <c r="C488" s="66">
+      <c r="C488" s="13">
         <v>11963</v>
       </c>
-      <c r="D488" s="66">
+      <c r="D488" s="13">
         <v>30</v>
       </c>
     </row>
@@ -16171,13 +16262,13 @@
       <c r="A489" s="13">
         <v>488</v>
       </c>
-      <c r="B489" s="66">
+      <c r="B489" s="13">
         <v>77</v>
       </c>
-      <c r="C489" s="66">
+      <c r="C489" s="13">
         <v>11964</v>
       </c>
-      <c r="D489" s="66">
+      <c r="D489" s="13">
         <v>100</v>
       </c>
     </row>
@@ -16185,13 +16276,13 @@
       <c r="A490" s="13">
         <v>489</v>
       </c>
-      <c r="B490" s="66">
+      <c r="B490" s="13">
         <v>77</v>
       </c>
-      <c r="C490" s="66">
+      <c r="C490" s="13">
         <v>11965</v>
       </c>
-      <c r="D490" s="66">
+      <c r="D490" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16199,13 +16290,13 @@
       <c r="A491" s="13">
         <v>490</v>
       </c>
-      <c r="B491" s="66">
+      <c r="B491" s="13">
         <v>77</v>
       </c>
-      <c r="C491" s="66">
+      <c r="C491" s="13">
         <v>11966</v>
       </c>
-      <c r="D491" s="66">
+      <c r="D491" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16213,13 +16304,13 @@
       <c r="A492" s="13">
         <v>491</v>
       </c>
-      <c r="B492" s="66">
+      <c r="B492" s="13">
         <v>77</v>
       </c>
-      <c r="C492" s="66">
+      <c r="C492" s="13">
         <v>11967</v>
       </c>
-      <c r="D492" s="66">
+      <c r="D492" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16227,13 +16318,13 @@
       <c r="A493" s="13">
         <v>492</v>
       </c>
-      <c r="B493" s="66">
+      <c r="B493" s="13">
         <v>77</v>
       </c>
-      <c r="C493" s="66">
+      <c r="C493" s="13">
         <v>11968</v>
       </c>
-      <c r="D493" s="66">
+      <c r="D493" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16241,13 +16332,13 @@
       <c r="A494" s="13">
         <v>493</v>
       </c>
-      <c r="B494" s="66">
+      <c r="B494" s="13">
         <v>77</v>
       </c>
-      <c r="C494" s="66">
+      <c r="C494" s="13">
         <v>11969</v>
       </c>
-      <c r="D494" s="66">
+      <c r="D494" s="13">
         <v>1599</v>
       </c>
     </row>
@@ -16255,13 +16346,13 @@
       <c r="A495" s="13">
         <v>494</v>
       </c>
-      <c r="B495" s="66">
+      <c r="B495" s="13">
         <v>77</v>
       </c>
-      <c r="C495" s="66">
+      <c r="C495" s="13">
         <v>11970</v>
       </c>
-      <c r="D495" s="66">
+      <c r="D495" s="13">
         <v>1900</v>
       </c>
     </row>
@@ -16269,13 +16360,13 @@
       <c r="A496" s="13">
         <v>495</v>
       </c>
-      <c r="B496" s="66">
+      <c r="B496" s="13">
         <v>77</v>
       </c>
-      <c r="C496" s="66">
+      <c r="C496" s="13">
         <v>11971</v>
       </c>
-      <c r="D496" s="66">
+      <c r="D496" s="13">
         <v>1900</v>
       </c>
     </row>
@@ -16283,14 +16374,392 @@
       <c r="A497" s="13">
         <v>496</v>
       </c>
-      <c r="B497" s="66">
+      <c r="B497" s="13">
         <v>77</v>
       </c>
-      <c r="C497" s="66">
+      <c r="C497" s="13">
         <v>11972</v>
       </c>
-      <c r="D497" s="66">
+      <c r="D497" s="13">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="13">
+        <v>497</v>
+      </c>
+      <c r="B498" s="55">
+        <v>78</v>
+      </c>
+      <c r="C498" s="55">
+        <v>11973</v>
+      </c>
+      <c r="D498" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="13">
+        <v>498</v>
+      </c>
+      <c r="B499" s="55">
+        <v>78</v>
+      </c>
+      <c r="C499" s="55">
+        <v>11974</v>
+      </c>
+      <c r="D499" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="13">
+        <v>499</v>
+      </c>
+      <c r="B500" s="55">
+        <v>78</v>
+      </c>
+      <c r="C500" s="55">
+        <v>11975</v>
+      </c>
+      <c r="D500" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="13">
+        <v>500</v>
+      </c>
+      <c r="B501" s="55">
+        <v>78</v>
+      </c>
+      <c r="C501" s="55">
+        <v>11976</v>
+      </c>
+      <c r="D501" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="13">
+        <v>501</v>
+      </c>
+      <c r="B502" s="55">
+        <v>78</v>
+      </c>
+      <c r="C502" s="55">
+        <v>11977</v>
+      </c>
+      <c r="D502" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="13">
+        <v>502</v>
+      </c>
+      <c r="B503" s="55">
+        <v>78</v>
+      </c>
+      <c r="C503" s="55">
+        <v>11978</v>
+      </c>
+      <c r="D503" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="13">
+        <v>503</v>
+      </c>
+      <c r="B504" s="55">
+        <v>78</v>
+      </c>
+      <c r="C504" s="55">
+        <v>11979</v>
+      </c>
+      <c r="D504" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="13">
+        <v>504</v>
+      </c>
+      <c r="B505" s="55">
+        <v>78</v>
+      </c>
+      <c r="C505" s="55">
+        <v>11980</v>
+      </c>
+      <c r="D505" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="13">
+        <v>505</v>
+      </c>
+      <c r="B506" s="55">
+        <v>78</v>
+      </c>
+      <c r="C506" s="55">
+        <v>11981</v>
+      </c>
+      <c r="D506" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="13">
+        <v>506</v>
+      </c>
+      <c r="B507" s="55">
+        <v>79</v>
+      </c>
+      <c r="C507" s="55">
+        <v>11982</v>
+      </c>
+      <c r="D507" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="13">
+        <v>507</v>
+      </c>
+      <c r="B508" s="55">
+        <v>79</v>
+      </c>
+      <c r="C508" s="55">
+        <v>11983</v>
+      </c>
+      <c r="D508" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="13">
+        <v>508</v>
+      </c>
+      <c r="B509" s="55">
+        <v>79</v>
+      </c>
+      <c r="C509" s="55">
+        <v>11984</v>
+      </c>
+      <c r="D509" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="13">
+        <v>509</v>
+      </c>
+      <c r="B510" s="55">
+        <v>79</v>
+      </c>
+      <c r="C510" s="55">
+        <v>11985</v>
+      </c>
+      <c r="D510" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="13">
+        <v>510</v>
+      </c>
+      <c r="B511" s="55">
+        <v>79</v>
+      </c>
+      <c r="C511" s="55">
+        <v>11986</v>
+      </c>
+      <c r="D511" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="13">
+        <v>511</v>
+      </c>
+      <c r="B512" s="55">
+        <v>79</v>
+      </c>
+      <c r="C512" s="55">
+        <v>11987</v>
+      </c>
+      <c r="D512" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="13">
+        <v>512</v>
+      </c>
+      <c r="B513" s="55">
+        <v>79</v>
+      </c>
+      <c r="C513" s="55">
+        <v>11988</v>
+      </c>
+      <c r="D513" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="13">
+        <v>513</v>
+      </c>
+      <c r="B514" s="55">
+        <v>79</v>
+      </c>
+      <c r="C514" s="55">
+        <v>11989</v>
+      </c>
+      <c r="D514" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="13">
+        <v>514</v>
+      </c>
+      <c r="B515" s="55">
+        <v>79</v>
+      </c>
+      <c r="C515" s="55">
+        <v>11990</v>
+      </c>
+      <c r="D515" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="13">
+        <v>515</v>
+      </c>
+      <c r="B516" s="55">
+        <v>80</v>
+      </c>
+      <c r="C516" s="55">
+        <v>11991</v>
+      </c>
+      <c r="D516" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="13">
+        <v>516</v>
+      </c>
+      <c r="B517" s="55">
+        <v>80</v>
+      </c>
+      <c r="C517" s="55">
+        <v>11992</v>
+      </c>
+      <c r="D517" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="13">
+        <v>517</v>
+      </c>
+      <c r="B518" s="55">
+        <v>80</v>
+      </c>
+      <c r="C518" s="55">
+        <v>11993</v>
+      </c>
+      <c r="D518" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="13">
+        <v>518</v>
+      </c>
+      <c r="B519" s="55">
+        <v>80</v>
+      </c>
+      <c r="C519" s="55">
+        <v>11994</v>
+      </c>
+      <c r="D519" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="13">
+        <v>519</v>
+      </c>
+      <c r="B520" s="55">
+        <v>80</v>
+      </c>
+      <c r="C520" s="55">
+        <v>11995</v>
+      </c>
+      <c r="D520" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="13">
+        <v>520</v>
+      </c>
+      <c r="B521" s="55">
+        <v>80</v>
+      </c>
+      <c r="C521" s="55">
+        <v>11996</v>
+      </c>
+      <c r="D521" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="13">
+        <v>521</v>
+      </c>
+      <c r="B522" s="55">
+        <v>80</v>
+      </c>
+      <c r="C522" s="55">
+        <v>11997</v>
+      </c>
+      <c r="D522" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="13">
+        <v>522</v>
+      </c>
+      <c r="B523" s="55">
+        <v>80</v>
+      </c>
+      <c r="C523" s="55">
+        <v>11998</v>
+      </c>
+      <c r="D523" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="13">
+        <v>523</v>
+      </c>
+      <c r="B524" s="55">
+        <v>80</v>
+      </c>
+      <c r="C524" s="55">
+        <v>11999</v>
+      </c>
+      <c r="D524" s="55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -16302,11 +16771,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F497"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
+      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B498" sqref="B498:B524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16319,10 +16788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -22351,7 +22820,7 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="53" t="s">
+      <c r="D384" s="48" t="s">
         <v>675</v>
       </c>
       <c r="E384" s="21" t="s">
@@ -22368,7 +22837,7 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="53" t="s">
+      <c r="D385" s="48" t="s">
         <v>676</v>
       </c>
       <c r="E385" s="21" t="s">
@@ -23494,14 +23963,14 @@
       <c r="A455" s="17">
         <v>454</v>
       </c>
-      <c r="B455" s="45">
+      <c r="B455" s="13">
         <v>11930</v>
       </c>
-      <c r="C455" s="45"/>
+      <c r="C455" s="13"/>
       <c r="D455" s="54" t="s">
         <v>727</v>
       </c>
-      <c r="E455" s="46" t="s">
+      <c r="E455" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23509,14 +23978,14 @@
       <c r="A456" s="17">
         <v>455</v>
       </c>
-      <c r="B456" s="45">
+      <c r="B456" s="13">
         <v>11931</v>
       </c>
-      <c r="C456" s="45"/>
+      <c r="C456" s="13"/>
       <c r="D456" s="54" t="s">
         <v>728</v>
       </c>
-      <c r="E456" s="46" t="s">
+      <c r="E456" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23524,14 +23993,14 @@
       <c r="A457" s="17">
         <v>456</v>
       </c>
-      <c r="B457" s="45">
+      <c r="B457" s="13">
         <v>11932</v>
       </c>
-      <c r="C457" s="45"/>
+      <c r="C457" s="13"/>
       <c r="D457" s="54" t="s">
         <v>729</v>
       </c>
-      <c r="E457" s="46" t="s">
+      <c r="E457" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23539,14 +24008,14 @@
       <c r="A458" s="17">
         <v>457</v>
       </c>
-      <c r="B458" s="45">
+      <c r="B458" s="13">
         <v>11933</v>
       </c>
-      <c r="C458" s="45"/>
+      <c r="C458" s="13"/>
       <c r="D458" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="E458" s="46" t="s">
+      <c r="E458" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23554,14 +24023,14 @@
       <c r="A459" s="17">
         <v>458</v>
       </c>
-      <c r="B459" s="57">
+      <c r="B459" s="13">
         <v>11934</v>
       </c>
-      <c r="C459" s="57"/>
-      <c r="D459" s="59" t="s">
+      <c r="C459" s="13"/>
+      <c r="D459" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E459" s="58" t="s">
+      <c r="E459" s="21" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23569,14 +24038,14 @@
       <c r="A460" s="17">
         <v>459</v>
       </c>
-      <c r="B460" s="57">
+      <c r="B460" s="13">
         <v>11935</v>
       </c>
-      <c r="C460" s="57"/>
-      <c r="D460" s="59" t="s">
+      <c r="C460" s="13"/>
+      <c r="D460" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E460" s="58" t="s">
+      <c r="E460" s="21" t="s">
         <v>756</v>
       </c>
     </row>
@@ -23584,14 +24053,14 @@
       <c r="A461" s="17">
         <v>460</v>
       </c>
-      <c r="B461" s="57">
+      <c r="B461" s="13">
         <v>11936</v>
       </c>
-      <c r="C461" s="57"/>
-      <c r="D461" s="60" t="s">
+      <c r="C461" s="13"/>
+      <c r="D461" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E461" s="58" t="s">
+      <c r="E461" s="21" t="s">
         <v>751</v>
       </c>
     </row>
@@ -23599,14 +24068,14 @@
       <c r="A462" s="17">
         <v>461</v>
       </c>
-      <c r="B462" s="57">
+      <c r="B462" s="13">
         <v>11937</v>
       </c>
-      <c r="C462" s="57"/>
-      <c r="D462" s="60" t="s">
+      <c r="C462" s="13"/>
+      <c r="D462" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E462" s="58" t="s">
+      <c r="E462" s="21" t="s">
         <v>752</v>
       </c>
     </row>
@@ -23614,14 +24083,14 @@
       <c r="A463" s="17">
         <v>462</v>
       </c>
-      <c r="B463" s="57">
+      <c r="B463" s="13">
         <v>11938</v>
       </c>
-      <c r="C463" s="57"/>
-      <c r="D463" s="60" t="s">
+      <c r="C463" s="13"/>
+      <c r="D463" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E463" s="58" t="s">
+      <c r="E463" s="21" t="s">
         <v>753</v>
       </c>
     </row>
@@ -23629,14 +24098,14 @@
       <c r="A464" s="17">
         <v>463</v>
       </c>
-      <c r="B464" s="57">
+      <c r="B464" s="13">
         <v>11939</v>
       </c>
-      <c r="C464" s="57"/>
-      <c r="D464" s="59" t="s">
+      <c r="C464" s="13"/>
+      <c r="D464" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E464" s="58" t="s">
+      <c r="E464" s="21" t="s">
         <v>754</v>
       </c>
     </row>
@@ -23644,14 +24113,14 @@
       <c r="A465" s="17">
         <v>464</v>
       </c>
-      <c r="B465" s="57">
+      <c r="B465" s="13">
         <v>11940</v>
       </c>
-      <c r="C465" s="57"/>
-      <c r="D465" s="59" t="s">
+      <c r="C465" s="13"/>
+      <c r="D465" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E465" s="58" t="s">
+      <c r="E465" s="21" t="s">
         <v>755</v>
       </c>
     </row>
@@ -23659,27 +24128,27 @@
       <c r="A466" s="17">
         <v>465</v>
       </c>
-      <c r="B466" s="57">
+      <c r="B466" s="13">
         <v>11941</v>
       </c>
-      <c r="C466" s="59" t="s">
+      <c r="C466" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D466" s="57"/>
-      <c r="E466" s="61"/>
+      <c r="D466" s="13"/>
+      <c r="E466" s="32"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="17">
         <v>466</v>
       </c>
-      <c r="B467" s="57">
+      <c r="B467" s="13">
         <v>11942</v>
       </c>
-      <c r="C467" s="57"/>
-      <c r="D467" s="57" t="s">
+      <c r="C467" s="13"/>
+      <c r="D467" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E467" s="58" t="s">
+      <c r="E467" s="21" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23687,14 +24156,14 @@
       <c r="A468" s="17">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="13">
         <v>11943</v>
       </c>
-      <c r="C468" s="57"/>
-      <c r="D468" s="59" t="s">
+      <c r="C468" s="13"/>
+      <c r="D468" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E468" s="58" t="s">
+      <c r="E468" s="21" t="s">
         <v>756</v>
       </c>
     </row>
@@ -23702,14 +24171,14 @@
       <c r="A469" s="17">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="13">
         <v>11944</v>
       </c>
-      <c r="C469" s="57"/>
-      <c r="D469" s="60" t="s">
+      <c r="C469" s="13"/>
+      <c r="D469" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E469" s="58" t="s">
+      <c r="E469" s="21" t="s">
         <v>751</v>
       </c>
     </row>
@@ -23717,14 +24186,14 @@
       <c r="A470" s="17">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="13">
         <v>11945</v>
       </c>
-      <c r="C470" s="57"/>
-      <c r="D470" s="60" t="s">
+      <c r="C470" s="13"/>
+      <c r="D470" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E470" s="58" t="s">
+      <c r="E470" s="21" t="s">
         <v>752</v>
       </c>
     </row>
@@ -23732,14 +24201,14 @@
       <c r="A471" s="17">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="13">
         <v>11946</v>
       </c>
-      <c r="C471" s="57"/>
-      <c r="D471" s="60" t="s">
+      <c r="C471" s="13"/>
+      <c r="D471" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E471" s="58" t="s">
+      <c r="E471" s="21" t="s">
         <v>753</v>
       </c>
     </row>
@@ -23747,14 +24216,14 @@
       <c r="A472" s="17">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="13">
         <v>11947</v>
       </c>
-      <c r="C472" s="57"/>
-      <c r="D472" s="59" t="s">
+      <c r="C472" s="13"/>
+      <c r="D472" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E472" s="58" t="s">
+      <c r="E472" s="21" t="s">
         <v>754</v>
       </c>
     </row>
@@ -23762,14 +24231,14 @@
       <c r="A473" s="17">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="13">
         <v>11948</v>
       </c>
-      <c r="C473" s="57"/>
-      <c r="D473" s="59" t="s">
+      <c r="C473" s="13"/>
+      <c r="D473" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="E473" s="58" t="s">
+      <c r="E473" s="21" t="s">
         <v>755</v>
       </c>
     </row>
@@ -23777,27 +24246,27 @@
       <c r="A474" s="17">
         <v>473</v>
       </c>
-      <c r="B474" s="57">
+      <c r="B474" s="13">
         <v>11949</v>
       </c>
-      <c r="C474" s="59" t="s">
+      <c r="C474" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D474" s="57"/>
-      <c r="E474" s="61"/>
+      <c r="D474" s="13"/>
+      <c r="E474" s="32"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="17">
         <v>474</v>
       </c>
-      <c r="B475" s="57">
+      <c r="B475" s="13">
         <v>11950</v>
       </c>
-      <c r="C475" s="57"/>
-      <c r="D475" s="57" t="s">
+      <c r="C475" s="13"/>
+      <c r="D475" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E475" s="58" t="s">
+      <c r="E475" s="21" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23805,14 +24274,14 @@
       <c r="A476" s="17">
         <v>475</v>
       </c>
-      <c r="B476" s="57">
+      <c r="B476" s="13">
         <v>11951</v>
       </c>
-      <c r="C476" s="57"/>
-      <c r="D476" s="59" t="s">
+      <c r="C476" s="13"/>
+      <c r="D476" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E476" s="58" t="s">
+      <c r="E476" s="21" t="s">
         <v>756</v>
       </c>
     </row>
@@ -23820,14 +24289,14 @@
       <c r="A477" s="17">
         <v>476</v>
       </c>
-      <c r="B477" s="57">
+      <c r="B477" s="13">
         <v>11952</v>
       </c>
-      <c r="C477" s="57"/>
-      <c r="D477" s="60" t="s">
+      <c r="C477" s="13"/>
+      <c r="D477" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E477" s="58" t="s">
+      <c r="E477" s="21" t="s">
         <v>751</v>
       </c>
     </row>
@@ -23835,14 +24304,14 @@
       <c r="A478" s="17">
         <v>477</v>
       </c>
-      <c r="B478" s="57">
+      <c r="B478" s="13">
         <v>11953</v>
       </c>
-      <c r="C478" s="57"/>
-      <c r="D478" s="60" t="s">
+      <c r="C478" s="13"/>
+      <c r="D478" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E478" s="58" t="s">
+      <c r="E478" s="21" t="s">
         <v>752</v>
       </c>
     </row>
@@ -23850,14 +24319,14 @@
       <c r="A479" s="17">
         <v>478</v>
       </c>
-      <c r="B479" s="57">
+      <c r="B479" s="13">
         <v>11954</v>
       </c>
-      <c r="C479" s="57"/>
-      <c r="D479" s="60" t="s">
+      <c r="C479" s="13"/>
+      <c r="D479" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E479" s="58" t="s">
+      <c r="E479" s="21" t="s">
         <v>753</v>
       </c>
     </row>
@@ -23865,14 +24334,14 @@
       <c r="A480" s="17">
         <v>479</v>
       </c>
-      <c r="B480" s="57">
+      <c r="B480" s="13">
         <v>11955</v>
       </c>
-      <c r="C480" s="57"/>
-      <c r="D480" s="59" t="s">
+      <c r="C480" s="13"/>
+      <c r="D480" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E480" s="58" t="s">
+      <c r="E480" s="21" t="s">
         <v>754</v>
       </c>
     </row>
@@ -23880,14 +24349,14 @@
       <c r="A481" s="17">
         <v>480</v>
       </c>
-      <c r="B481" s="57">
+      <c r="B481" s="13">
         <v>11956</v>
       </c>
-      <c r="C481" s="57"/>
-      <c r="D481" s="59" t="s">
+      <c r="C481" s="13"/>
+      <c r="D481" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E481" s="58" t="s">
+      <c r="E481" s="21" t="s">
         <v>755</v>
       </c>
     </row>
@@ -23895,92 +24364,92 @@
       <c r="A482" s="17">
         <v>481</v>
       </c>
-      <c r="B482" s="57">
+      <c r="B482" s="13">
         <v>11957</v>
       </c>
-      <c r="C482" s="59" t="s">
+      <c r="C482" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D482" s="57"/>
-      <c r="E482" s="61"/>
+      <c r="D482" s="13"/>
+      <c r="E482" s="32"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="17">
         <v>482</v>
       </c>
-      <c r="B483" s="66">
+      <c r="B483" s="13">
         <v>11958</v>
       </c>
-      <c r="C483" s="67" t="s">
+      <c r="C483" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D483" s="66"/>
-      <c r="E483" s="68"/>
+      <c r="D483" s="13"/>
+      <c r="E483" s="32"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="17">
         <v>483</v>
       </c>
-      <c r="B484" s="66">
+      <c r="B484" s="13">
         <v>11959</v>
       </c>
-      <c r="C484" s="67" t="s">
+      <c r="C484" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D484" s="66"/>
-      <c r="E484" s="68"/>
+      <c r="D484" s="13"/>
+      <c r="E484" s="32"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="17">
         <v>484</v>
       </c>
-      <c r="B485" s="66">
+      <c r="B485" s="13">
         <v>11960</v>
       </c>
-      <c r="C485" s="67" t="s">
+      <c r="C485" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="D485" s="66"/>
-      <c r="E485" s="68"/>
+      <c r="D485" s="13"/>
+      <c r="E485" s="32"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="17">
         <v>485</v>
       </c>
-      <c r="B486" s="66">
+      <c r="B486" s="13">
         <v>11961</v>
       </c>
-      <c r="C486" s="67" t="s">
+      <c r="C486" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D486" s="66"/>
-      <c r="E486" s="68"/>
+      <c r="D486" s="13"/>
+      <c r="E486" s="32"/>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="17">
         <v>486</v>
       </c>
-      <c r="B487" s="66">
+      <c r="B487" s="13">
         <v>11962</v>
       </c>
-      <c r="C487" s="67" t="s">
+      <c r="C487" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D487" s="66"/>
-      <c r="E487" s="68"/>
+      <c r="D487" s="13"/>
+      <c r="E487" s="32"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="17">
         <v>487</v>
       </c>
-      <c r="B488" s="66">
+      <c r="B488" s="13">
         <v>11963</v>
       </c>
-      <c r="C488" s="66"/>
-      <c r="D488" s="66" t="s">
+      <c r="C488" s="13"/>
+      <c r="D488" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E488" s="69" t="s">
+      <c r="E488" s="21" t="s">
         <v>774</v>
       </c>
     </row>
@@ -23988,14 +24457,14 @@
       <c r="A489" s="17">
         <v>488</v>
       </c>
-      <c r="B489" s="66">
+      <c r="B489" s="13">
         <v>11964</v>
       </c>
-      <c r="C489" s="66"/>
-      <c r="D489" s="67" t="s">
+      <c r="C489" s="13"/>
+      <c r="D489" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E489" s="69" t="s">
+      <c r="E489" s="21" t="s">
         <v>763</v>
       </c>
     </row>
@@ -24003,14 +24472,14 @@
       <c r="A490" s="17">
         <v>489</v>
       </c>
-      <c r="B490" s="66">
+      <c r="B490" s="13">
         <v>11965</v>
       </c>
-      <c r="C490" s="66"/>
-      <c r="D490" s="67" t="s">
+      <c r="C490" s="13"/>
+      <c r="D490" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="E490" s="69" t="s">
+      <c r="E490" s="21" t="s">
         <v>765</v>
       </c>
     </row>
@@ -24018,14 +24487,14 @@
       <c r="A491" s="17">
         <v>490</v>
       </c>
-      <c r="B491" s="66">
+      <c r="B491" s="13">
         <v>11966</v>
       </c>
-      <c r="C491" s="66"/>
-      <c r="D491" s="66" t="s">
+      <c r="C491" s="13"/>
+      <c r="D491" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="69" t="s">
+      <c r="E491" s="21" t="s">
         <v>766</v>
       </c>
     </row>
@@ -24033,14 +24502,14 @@
       <c r="A492" s="17">
         <v>491</v>
       </c>
-      <c r="B492" s="66">
+      <c r="B492" s="13">
         <v>11967</v>
       </c>
-      <c r="C492" s="66"/>
-      <c r="D492" s="66" t="s">
+      <c r="C492" s="13"/>
+      <c r="D492" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="E492" s="69" t="s">
+      <c r="E492" s="21" t="s">
         <v>768</v>
       </c>
     </row>
@@ -24048,14 +24517,14 @@
       <c r="A493" s="17">
         <v>492</v>
       </c>
-      <c r="B493" s="66">
+      <c r="B493" s="13">
         <v>11968</v>
       </c>
-      <c r="C493" s="66"/>
-      <c r="D493" s="66" t="s">
+      <c r="C493" s="13"/>
+      <c r="D493" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="E493" s="69" t="s">
+      <c r="E493" s="21" t="s">
         <v>771</v>
       </c>
     </row>
@@ -24063,14 +24532,14 @@
       <c r="A494" s="17">
         <v>493</v>
       </c>
-      <c r="B494" s="66">
+      <c r="B494" s="13">
         <v>11969</v>
       </c>
-      <c r="C494" s="66"/>
-      <c r="D494" s="66" t="s">
+      <c r="C494" s="13"/>
+      <c r="D494" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E494" s="69" t="s">
+      <c r="E494" s="21" t="s">
         <v>772</v>
       </c>
     </row>
@@ -24078,14 +24547,14 @@
       <c r="A495" s="17">
         <v>494</v>
       </c>
-      <c r="B495" s="66">
+      <c r="B495" s="13">
         <v>11970</v>
       </c>
-      <c r="C495" s="66"/>
-      <c r="D495" s="66" t="s">
+      <c r="C495" s="13"/>
+      <c r="D495" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E495" s="69" t="s">
+      <c r="E495" s="21" t="s">
         <v>773</v>
       </c>
     </row>
@@ -24093,14 +24562,14 @@
       <c r="A496" s="17">
         <v>495</v>
       </c>
-      <c r="B496" s="66">
+      <c r="B496" s="13">
         <v>11971</v>
       </c>
-      <c r="C496" s="66"/>
-      <c r="D496" s="67" t="s">
+      <c r="C496" s="13"/>
+      <c r="D496" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E496" s="69" t="s">
+      <c r="E496" s="21" t="s">
         <v>773</v>
       </c>
     </row>
@@ -24108,15 +24577,420 @@
       <c r="A497" s="17">
         <v>496</v>
       </c>
-      <c r="B497" s="66">
+      <c r="B497" s="13">
         <v>11972</v>
       </c>
-      <c r="C497" s="66"/>
-      <c r="D497" s="66" t="s">
+      <c r="C497" s="13"/>
+      <c r="D497" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="E497" s="69" t="s">
+      <c r="E497" s="21" t="s">
         <v>772</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="53">
+        <v>497</v>
+      </c>
+      <c r="B498" s="55">
+        <v>11973</v>
+      </c>
+      <c r="C498" s="55"/>
+      <c r="D498" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E498" s="56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="53">
+        <v>498</v>
+      </c>
+      <c r="B499" s="55">
+        <v>11974</v>
+      </c>
+      <c r="C499" s="55"/>
+      <c r="D499" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E499" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="53">
+        <v>499</v>
+      </c>
+      <c r="B500" s="55">
+        <v>11975</v>
+      </c>
+      <c r="C500" s="55"/>
+      <c r="D500" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E500" s="56" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="53">
+        <v>500</v>
+      </c>
+      <c r="B501" s="55">
+        <v>11976</v>
+      </c>
+      <c r="C501" s="55"/>
+      <c r="D501" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E501" s="56" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="53">
+        <v>501</v>
+      </c>
+      <c r="B502" s="55">
+        <v>11977</v>
+      </c>
+      <c r="C502" s="55"/>
+      <c r="D502" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E502" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="53">
+        <v>502</v>
+      </c>
+      <c r="B503" s="55">
+        <v>11978</v>
+      </c>
+      <c r="C503" s="55"/>
+      <c r="D503" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E503" s="56" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="53">
+        <v>503</v>
+      </c>
+      <c r="B504" s="55">
+        <v>11979</v>
+      </c>
+      <c r="C504" s="55"/>
+      <c r="D504" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E504" s="56" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="53">
+        <v>504</v>
+      </c>
+      <c r="B505" s="55">
+        <v>11980</v>
+      </c>
+      <c r="C505" s="55"/>
+      <c r="D505" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E505" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="53">
+        <v>505</v>
+      </c>
+      <c r="B506" s="55">
+        <v>11981</v>
+      </c>
+      <c r="C506" s="55"/>
+      <c r="D506" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E506" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="53">
+        <v>506</v>
+      </c>
+      <c r="B507" s="55">
+        <v>11982</v>
+      </c>
+      <c r="C507" s="55"/>
+      <c r="D507" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E507" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="53">
+        <v>507</v>
+      </c>
+      <c r="B508" s="55">
+        <v>11983</v>
+      </c>
+      <c r="C508" s="55"/>
+      <c r="D508" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E508" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="53">
+        <v>508</v>
+      </c>
+      <c r="B509" s="55">
+        <v>11984</v>
+      </c>
+      <c r="C509" s="55"/>
+      <c r="D509" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E509" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="53">
+        <v>509</v>
+      </c>
+      <c r="B510" s="55">
+        <v>11985</v>
+      </c>
+      <c r="C510" s="55"/>
+      <c r="D510" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E510" s="56" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="53">
+        <v>510</v>
+      </c>
+      <c r="B511" s="55">
+        <v>11986</v>
+      </c>
+      <c r="C511" s="55"/>
+      <c r="D511" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E511" s="56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="53">
+        <v>511</v>
+      </c>
+      <c r="B512" s="55">
+        <v>11987</v>
+      </c>
+      <c r="C512" s="55"/>
+      <c r="D512" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E512" s="56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="53">
+        <v>512</v>
+      </c>
+      <c r="B513" s="55">
+        <v>11988</v>
+      </c>
+      <c r="C513" s="55"/>
+      <c r="D513" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E513" s="56" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="53">
+        <v>513</v>
+      </c>
+      <c r="B514" s="55">
+        <v>11989</v>
+      </c>
+      <c r="C514" s="55"/>
+      <c r="D514" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E514" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="53">
+        <v>514</v>
+      </c>
+      <c r="B515" s="55">
+        <v>11990</v>
+      </c>
+      <c r="C515" s="55"/>
+      <c r="D515" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E515" s="56" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="53">
+        <v>515</v>
+      </c>
+      <c r="B516" s="55">
+        <v>11991</v>
+      </c>
+      <c r="C516" s="55"/>
+      <c r="D516" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E516" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="53">
+        <v>516</v>
+      </c>
+      <c r="B517" s="55">
+        <v>11992</v>
+      </c>
+      <c r="C517" s="55"/>
+      <c r="D517" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E517" s="56" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="53">
+        <v>517</v>
+      </c>
+      <c r="B518" s="55">
+        <v>11993</v>
+      </c>
+      <c r="C518" s="55"/>
+      <c r="D518" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E518" s="56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="53">
+        <v>518</v>
+      </c>
+      <c r="B519" s="55">
+        <v>11994</v>
+      </c>
+      <c r="C519" s="55"/>
+      <c r="D519" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E519" s="56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="53">
+        <v>519</v>
+      </c>
+      <c r="B520" s="55">
+        <v>11995</v>
+      </c>
+      <c r="C520" s="55"/>
+      <c r="D520" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E520" s="56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="53">
+        <v>520</v>
+      </c>
+      <c r="B521" s="55">
+        <v>11996</v>
+      </c>
+      <c r="C521" s="55"/>
+      <c r="D521" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E521" s="56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="53">
+        <v>521</v>
+      </c>
+      <c r="B522" s="55">
+        <v>11997</v>
+      </c>
+      <c r="C522" s="55"/>
+      <c r="D522" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E522" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="53">
+        <v>522</v>
+      </c>
+      <c r="B523" s="55">
+        <v>11998</v>
+      </c>
+      <c r="C523" s="55"/>
+      <c r="D523" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E523" s="56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="53">
+        <v>523</v>
+      </c>
+      <c r="B524" s="55">
+        <v>11999</v>
+      </c>
+      <c r="C524" s="55"/>
+      <c r="D524" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E524" s="56" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -25205,25 +26079,25 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>737</v>
       </c>
     </row>
@@ -25248,16 +26122,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>740</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>741</v>
       </c>
     </row>
@@ -25287,10 +26161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>743</v>
       </c>
     </row>

--- a/config_3.2/box_exchange_server.xlsx
+++ b/config_3.2/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="791">
   <si>
     <t>id|</t>
   </si>
@@ -4848,20 +4848,242 @@
     <t>prop_xnsmt_mtsp</t>
   </si>
   <si>
-    <t>茅台酒</t>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果电脑</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,150000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,15000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,600000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包稀有宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包史诗宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包传说宝箱</t>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>10000,30000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4878,7 +5100,90 @@
       </rPr>
       <t>0,100</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4895,253 +5200,6 @@
       </rPr>
       <t>000,3000</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,10000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果电脑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00京东卡</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚果大礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯棉毛巾</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,150000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,40</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,40000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,40000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,40</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,15000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,600000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>女神礼包稀有宝箱</t>
-  </si>
-  <si>
-    <t>女神礼包史诗宝箱</t>
-  </si>
-  <si>
-    <t>女神礼包传说宝箱</t>
-  </si>
-  <si>
-    <t>prop_ty_xybox</t>
-  </si>
-  <si>
-    <t>prop_ty_ssbox</t>
-  </si>
-  <si>
-    <t>prop_ty_csbox</t>
-  </si>
-  <si>
-    <t>财神送礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5809,7 +5867,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
@@ -8137,7 +8195,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C78" s="18">
         <v>1613433600</v>
@@ -8165,7 +8223,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C79" s="18">
         <v>1613433600</v>
@@ -8193,7 +8251,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C80" s="51">
         <v>1614643200</v>
@@ -8221,7 +8279,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C81" s="51">
         <v>1614643200</v>
@@ -8249,7 +8307,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C82" s="51">
         <v>1614643200</v>
@@ -9287,7 +9345,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D71" s="18">
         <v>50</v>
@@ -9315,7 +9373,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D73" s="51">
         <v>1</v>
@@ -9329,7 +9387,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D74" s="51">
         <v>1</v>
@@ -9343,7 +9401,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D75" s="51">
         <v>1</v>
@@ -16769,9 +16827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F524"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B498" sqref="B498:B524"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23904,7 +23962,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -24024,10 +24082,10 @@
       </c>
       <c r="C459" s="13"/>
       <c r="D459" s="15" t="s">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="E459" s="21" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="17" customFormat="1">
@@ -24039,10 +24097,10 @@
       </c>
       <c r="C460" s="13"/>
       <c r="D460" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E460" s="21" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -24057,7 +24115,7 @@
         <v>748</v>
       </c>
       <c r="E461" s="21" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -24072,7 +24130,7 @@
         <v>748</v>
       </c>
       <c r="E462" s="21" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="16.5">
@@ -24087,7 +24145,7 @@
         <v>748</v>
       </c>
       <c r="E463" s="21" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -24099,10 +24157,10 @@
       </c>
       <c r="C464" s="13"/>
       <c r="D464" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E464" s="21" t="s">
-        <v>754</v>
+        <v>152</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -24114,10 +24172,10 @@
       </c>
       <c r="C465" s="13"/>
       <c r="D465" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E465" s="21" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -24128,7 +24186,7 @@
         <v>11941</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="D466" s="13"/>
       <c r="E466" s="32"/>
@@ -24142,10 +24200,10 @@
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="13" t="s">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="E467" s="21" t="s">
-        <v>750</v>
+        <v>781</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -24157,10 +24215,10 @@
       </c>
       <c r="C468" s="13"/>
       <c r="D468" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E468" s="21" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="16.5">
@@ -24175,7 +24233,7 @@
         <v>748</v>
       </c>
       <c r="E469" s="21" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -24190,7 +24248,7 @@
         <v>748</v>
       </c>
       <c r="E470" s="21" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
@@ -24205,7 +24263,7 @@
         <v>748</v>
       </c>
       <c r="E471" s="21" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -24217,10 +24275,10 @@
       </c>
       <c r="C472" s="13"/>
       <c r="D472" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E472" s="21" t="s">
-        <v>754</v>
+        <v>152</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -24232,10 +24290,10 @@
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="15" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="E473" s="21" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -24246,7 +24304,7 @@
         <v>11949</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="D474" s="13"/>
       <c r="E474" s="32"/>
@@ -24260,10 +24318,10 @@
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="13" t="s">
-        <v>513</v>
+        <v>786</v>
       </c>
       <c r="E475" s="21" t="s">
-        <v>750</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -24275,10 +24333,10 @@
       </c>
       <c r="C476" s="13"/>
       <c r="D476" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E476" s="21" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="16.5">
@@ -24293,7 +24351,7 @@
         <v>748</v>
       </c>
       <c r="E477" s="21" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
@@ -24308,7 +24366,7 @@
         <v>748</v>
       </c>
       <c r="E478" s="21" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
@@ -24323,7 +24381,7 @@
         <v>748</v>
       </c>
       <c r="E479" s="21" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -24335,10 +24393,10 @@
       </c>
       <c r="C480" s="13"/>
       <c r="D480" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E480" s="21" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -24350,10 +24408,10 @@
       </c>
       <c r="C481" s="13"/>
       <c r="D481" s="15" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E481" s="21" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -24364,7 +24422,7 @@
         <v>11957</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="D482" s="13"/>
       <c r="E482" s="32"/>
@@ -24377,7 +24435,7 @@
         <v>11958</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D483" s="13"/>
       <c r="E483" s="32"/>
@@ -24390,7 +24448,7 @@
         <v>11959</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D484" s="13"/>
       <c r="E484" s="32"/>
@@ -24403,7 +24461,7 @@
         <v>11960</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D485" s="13"/>
       <c r="E485" s="32"/>
@@ -24416,7 +24474,7 @@
         <v>11961</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D486" s="13"/>
       <c r="E486" s="32"/>
@@ -24429,7 +24487,7 @@
         <v>11962</v>
       </c>
       <c r="C487" s="15" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D487" s="13"/>
       <c r="E487" s="32"/>
@@ -24446,7 +24504,7 @@
         <v>42</v>
       </c>
       <c r="E488" s="21" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -24461,7 +24519,7 @@
         <v>161</v>
       </c>
       <c r="E489" s="21" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -24473,10 +24531,10 @@
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="15" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E490" s="21" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -24491,7 +24549,7 @@
         <v>42</v>
       </c>
       <c r="E491" s="21" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -24503,10 +24561,10 @@
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="13" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E492" s="21" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -24518,10 +24576,10 @@
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="13" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E493" s="21" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -24536,7 +24594,7 @@
         <v>30</v>
       </c>
       <c r="E494" s="21" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -24551,7 +24609,7 @@
         <v>42</v>
       </c>
       <c r="E495" s="21" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -24566,7 +24624,7 @@
         <v>161</v>
       </c>
       <c r="E496" s="21" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -24578,10 +24636,10 @@
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="13" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E497" s="21" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="498" spans="1:5">
